--- a/Results_Summary.xlsx
+++ b/Results_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8AC2A6-3C45-4976-8D90-CFAC1237EAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DB0CB-C183-47AF-AB12-2D96CB7A3E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{EFC7981A-9020-47BE-BE85-59C126B69635}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{EFC7981A-9020-47BE-BE85-59C126B69635}"/>
   </bookViews>
   <sheets>
     <sheet name="Fourier" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="22">
   <si>
     <t>r</t>
   </si>
@@ -453,16 +453,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EEAE6E-1B3E-48B9-B9BF-D127E06B7F54}">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="10" max="10" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -1505,19 +1506,19 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1600</v>
+        <v>324</v>
       </c>
       <c r="E13">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F13">
-        <v>358.43010752688099</v>
+        <v>186.83050847457599</v>
       </c>
       <c r="G13">
-        <v>7.3504646685686597</v>
+        <v>1.13869456613783</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
@@ -1526,19 +1527,19 @@
         <v>10</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1600</v>
+        <v>324</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N13">
-        <v>412.51515151515099</v>
+        <v>345.62921348314597</v>
       </c>
       <c r="O13">
-        <v>23.144718703601001</v>
+        <v>2.0666381830213498</v>
       </c>
       <c r="Q13" t="s">
         <v>8</v>
@@ -1547,19 +1548,19 @@
         <v>11</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1600</v>
+        <v>324</v>
       </c>
       <c r="U13">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V13">
-        <v>180.43</v>
+        <v>363.164705882352</v>
       </c>
       <c r="W13">
-        <v>12.8192447564424</v>
+        <v>2.08428338414934</v>
       </c>
       <c r="Y13" t="s">
         <v>8</v>
@@ -1568,19 +1569,19 @@
         <v>12</v>
       </c>
       <c r="AA13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1600</v>
+        <v>324</v>
       </c>
       <c r="AC13">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="AD13">
-        <v>113.13</v>
+        <v>418.08333333333297</v>
       </c>
       <c r="AE13">
-        <v>9.3704795241448995</v>
+        <v>2.4422429338391298</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -1591,19 +1592,19 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1444</v>
+        <v>256</v>
       </c>
       <c r="E14">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>456.83720930232499</v>
+        <v>201.54545454545399</v>
       </c>
       <c r="G14">
-        <v>8.9484442743719104</v>
+        <v>1.1521790609747899</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
@@ -1612,19 +1613,19 @@
         <v>10</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1444</v>
+        <v>256</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="N14">
-        <v>368.61224490000001</v>
+        <v>497.86111111111097</v>
       </c>
       <c r="O14">
-        <v>18.933468609999998</v>
+        <v>2.9377189476088201</v>
       </c>
       <c r="Q14" t="s">
         <v>8</v>
@@ -1633,19 +1634,19 @@
         <v>11</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1444</v>
+        <v>256</v>
       </c>
       <c r="U14">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="V14">
-        <v>260.87</v>
+        <v>402.74647887323903</v>
       </c>
       <c r="W14">
-        <v>17.1117929873813</v>
+        <v>2.22319682145779</v>
       </c>
       <c r="Y14" t="s">
         <v>8</v>
@@ -1654,19 +1655,19 @@
         <v>12</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1444</v>
+        <v>256</v>
       </c>
       <c r="AC14">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="AD14">
-        <v>116.85</v>
+        <v>410.52380952380901</v>
       </c>
       <c r="AE14">
-        <v>16.907410461539399</v>
+        <v>2.3215298536750999</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -1680,16 +1681,16 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1296</v>
+        <v>1600</v>
       </c>
       <c r="E15">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F15">
-        <v>476.73863636363598</v>
+        <v>358.43010752688099</v>
       </c>
       <c r="G15">
-        <v>8.9439273722385799</v>
+        <v>7.3504646685686597</v>
       </c>
       <c r="I15" t="s">
         <v>8</v>
@@ -1701,16 +1702,16 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>1296</v>
+        <v>1600</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N15">
-        <v>384.34</v>
+        <v>412.51515151515099</v>
       </c>
       <c r="O15">
-        <v>18.221753718705099</v>
+        <v>23.144718703601001</v>
       </c>
       <c r="Q15" t="s">
         <v>8</v>
@@ -1722,16 +1723,16 @@
         <v>2</v>
       </c>
       <c r="T15">
-        <v>1296</v>
+        <v>1600</v>
       </c>
       <c r="U15">
         <v>100</v>
       </c>
       <c r="V15">
-        <v>169.46</v>
+        <v>180.43</v>
       </c>
       <c r="W15">
-        <v>10.179820107907201</v>
+        <v>12.8192447564424</v>
       </c>
       <c r="Y15" t="s">
         <v>8</v>
@@ -1743,16 +1744,16 @@
         <v>2</v>
       </c>
       <c r="AB15">
-        <v>1296</v>
+        <v>1600</v>
       </c>
       <c r="AC15">
         <v>100</v>
       </c>
       <c r="AD15">
-        <v>124.64</v>
+        <v>113.13</v>
       </c>
       <c r="AE15">
-        <v>11.7961628742818</v>
+        <v>9.3704795241448995</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -1766,16 +1767,16 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1156</v>
+        <v>1444</v>
       </c>
       <c r="E16">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F16">
-        <v>368.23655913978399</v>
+        <v>456.83720930232499</v>
       </c>
       <c r="G16">
-        <v>6.6511232826892499</v>
+        <v>8.9484442743719104</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
@@ -1787,16 +1788,16 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1156</v>
+        <v>1444</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N16">
-        <v>322.16000000000003</v>
+        <v>368.61224490000001</v>
       </c>
       <c r="O16">
-        <v>14.2039154468488</v>
+        <v>18.933468609999998</v>
       </c>
       <c r="Q16" t="s">
         <v>8</v>
@@ -1808,16 +1809,16 @@
         <v>2</v>
       </c>
       <c r="T16">
-        <v>1156</v>
+        <v>1444</v>
       </c>
       <c r="U16">
         <v>100</v>
       </c>
       <c r="V16">
-        <v>153.69999999999999</v>
+        <v>260.87</v>
       </c>
       <c r="W16">
-        <v>8.4657328579563096</v>
+        <v>17.1117929873813</v>
       </c>
       <c r="Y16" t="s">
         <v>8</v>
@@ -1829,16 +1830,16 @@
         <v>2</v>
       </c>
       <c r="AB16">
-        <v>1156</v>
+        <v>1444</v>
       </c>
       <c r="AC16">
         <v>100</v>
       </c>
       <c r="AD16">
-        <v>130.08000000000001</v>
+        <v>116.85</v>
       </c>
       <c r="AE16">
-        <v>11.2216260776831</v>
+        <v>16.907410461539399</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -1852,16 +1853,16 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>1024</v>
+        <v>1296</v>
       </c>
       <c r="E17">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F17">
-        <v>284.58064516129002</v>
+        <v>476.73863636363598</v>
       </c>
       <c r="G17">
-        <v>4.9058786080302097</v>
+        <v>8.9439273722385799</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
@@ -1873,16 +1874,16 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>1024</v>
+        <v>1296</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N17">
-        <v>294.28282828282801</v>
+        <v>384.34</v>
       </c>
       <c r="O17">
-        <v>11.978447548700499</v>
+        <v>18.221753718705099</v>
       </c>
       <c r="Q17" t="s">
         <v>8</v>
@@ -1894,16 +1895,16 @@
         <v>2</v>
       </c>
       <c r="T17">
-        <v>1024</v>
+        <v>1296</v>
       </c>
       <c r="U17">
         <v>100</v>
       </c>
       <c r="V17">
-        <v>170.66</v>
+        <v>169.46</v>
       </c>
       <c r="W17">
-        <v>8.5238273511477693</v>
+        <v>10.179820107907201</v>
       </c>
       <c r="Y17" t="s">
         <v>8</v>
@@ -1915,16 +1916,16 @@
         <v>2</v>
       </c>
       <c r="AB17">
-        <v>1024</v>
+        <v>1296</v>
       </c>
       <c r="AC17">
         <v>100</v>
       </c>
       <c r="AD17">
-        <v>140.61000000000001</v>
+        <v>124.64</v>
       </c>
       <c r="AE17">
-        <v>14.7350544435379</v>
+        <v>11.7961628742818</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -1938,16 +1939,16 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>900</v>
+        <v>1156</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F18">
-        <v>268.61111111111097</v>
+        <v>368.23655913978399</v>
       </c>
       <c r="G18">
-        <v>4.4304024329224596</v>
+        <v>6.6511232826892499</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
@@ -1959,16 +1960,16 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>900</v>
+        <v>1156</v>
       </c>
       <c r="M18">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N18">
-        <v>423.14736842105202</v>
+        <v>322.16000000000003</v>
       </c>
       <c r="O18">
-        <v>16.046678291112901</v>
+        <v>14.2039154468488</v>
       </c>
       <c r="Q18" t="s">
         <v>8</v>
@@ -1980,16 +1981,16 @@
         <v>2</v>
       </c>
       <c r="T18">
-        <v>900</v>
+        <v>1156</v>
       </c>
       <c r="U18">
         <v>100</v>
       </c>
       <c r="V18">
-        <v>208.58</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="W18">
-        <v>9.4261198371113206</v>
+        <v>8.4657328579563096</v>
       </c>
       <c r="Y18" t="s">
         <v>8</v>
@@ -2001,16 +2002,16 @@
         <v>2</v>
       </c>
       <c r="AB18">
-        <v>900</v>
+        <v>1156</v>
       </c>
       <c r="AC18">
         <v>100</v>
       </c>
       <c r="AD18">
-        <v>146.80000000000001</v>
+        <v>130.08000000000001</v>
       </c>
       <c r="AE18">
-        <v>13.7357975855784</v>
+        <v>11.2216260776831</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2024,16 +2025,16 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>784</v>
+        <v>1024</v>
       </c>
       <c r="E19">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F19">
-        <v>317.20238095238</v>
+        <v>284.58064516129002</v>
       </c>
       <c r="G19">
-        <v>5.0148931326070203</v>
+        <v>4.9058786080302097</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
@@ -2045,16 +2046,16 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>784</v>
+        <v>1024</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N19">
-        <v>307.93</v>
+        <v>294.28282828282801</v>
       </c>
       <c r="O19">
-        <v>10.4290385778318</v>
+        <v>11.978447548700499</v>
       </c>
       <c r="Q19" t="s">
         <v>8</v>
@@ -2066,16 +2067,16 @@
         <v>2</v>
       </c>
       <c r="T19">
-        <v>784</v>
+        <v>1024</v>
       </c>
       <c r="U19">
         <v>100</v>
       </c>
       <c r="V19">
-        <v>210.63</v>
+        <v>170.66</v>
       </c>
       <c r="W19">
-        <v>9.7590689080755695</v>
+        <v>8.5238273511477693</v>
       </c>
       <c r="Y19" t="s">
         <v>8</v>
@@ -2087,16 +2088,16 @@
         <v>2</v>
       </c>
       <c r="AB19">
-        <v>784</v>
+        <v>1024</v>
       </c>
       <c r="AC19">
         <v>100</v>
       </c>
       <c r="AD19">
-        <v>166.85</v>
+        <v>140.61000000000001</v>
       </c>
       <c r="AE19">
-        <v>13.788296239999999</v>
+        <v>14.7350544435379</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2110,16 +2111,16 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>676</v>
+        <v>900</v>
       </c>
       <c r="E20">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>434.815384615384</v>
+        <v>268.61111111111097</v>
       </c>
       <c r="G20">
-        <v>6.5849364794929501</v>
+        <v>4.4304024329224596</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
@@ -2131,16 +2132,16 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>676</v>
+        <v>900</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N20">
-        <v>272.7</v>
+        <v>423.14736842105202</v>
       </c>
       <c r="O20">
-        <v>8.42792584619019</v>
+        <v>16.046678291112901</v>
       </c>
       <c r="Q20" t="s">
         <v>8</v>
@@ -2152,16 +2153,16 @@
         <v>2</v>
       </c>
       <c r="T20">
-        <v>676</v>
+        <v>900</v>
       </c>
       <c r="U20">
         <v>100</v>
       </c>
       <c r="V20">
-        <v>228.82</v>
+        <v>208.58</v>
       </c>
       <c r="W20">
-        <v>9.8044047903583795</v>
+        <v>9.4261198371113206</v>
       </c>
       <c r="Y20" t="s">
         <v>8</v>
@@ -2173,16 +2174,16 @@
         <v>2</v>
       </c>
       <c r="AB20">
-        <v>676</v>
+        <v>900</v>
       </c>
       <c r="AC20">
         <v>100</v>
       </c>
       <c r="AD20">
-        <v>204.13</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="AE20">
-        <v>14.842247609999999</v>
+        <v>13.7357975855784</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2196,16 +2197,16 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>576</v>
+        <v>784</v>
       </c>
       <c r="E21">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F21">
-        <v>430.13559322033899</v>
+        <v>317.20238095238</v>
       </c>
       <c r="G21">
-        <v>6.2526356521357496</v>
+        <v>5.0148931326070203</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
@@ -2217,16 +2218,16 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>576</v>
+        <v>784</v>
       </c>
       <c r="M21">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N21">
-        <v>299.54545450000001</v>
+        <v>307.93</v>
       </c>
       <c r="O21">
-        <v>8.7133503739999991</v>
+        <v>10.4290385778318</v>
       </c>
       <c r="Q21" t="s">
         <v>8</v>
@@ -2238,16 +2239,16 @@
         <v>2</v>
       </c>
       <c r="T21">
-        <v>576</v>
+        <v>784</v>
       </c>
       <c r="U21">
         <v>100</v>
       </c>
       <c r="V21">
-        <v>272.37</v>
+        <v>210.63</v>
       </c>
       <c r="W21">
-        <v>10.585796369949801</v>
+        <v>9.7590689080755695</v>
       </c>
       <c r="Y21" t="s">
         <v>8</v>
@@ -2259,16 +2260,16 @@
         <v>2</v>
       </c>
       <c r="AB21">
-        <v>576</v>
+        <v>784</v>
       </c>
       <c r="AC21">
         <v>100</v>
       </c>
       <c r="AD21">
-        <v>258.7</v>
+        <v>166.85</v>
       </c>
       <c r="AE21">
-        <v>16.587729589999999</v>
+        <v>13.788296239999999</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2282,16 +2283,16 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>484</v>
+        <v>676</v>
       </c>
       <c r="E22">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F22">
-        <v>537.43902439024396</v>
+        <v>434.815384615384</v>
       </c>
       <c r="G22">
-        <v>7.4650224383420696</v>
+        <v>6.5849364794929501</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
@@ -2303,16 +2304,16 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>484</v>
+        <v>676</v>
       </c>
       <c r="M22">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N22">
-        <v>350.66666670000001</v>
+        <v>272.7</v>
       </c>
       <c r="O22">
-        <v>9.3208937709999997</v>
+        <v>8.42792584619019</v>
       </c>
       <c r="Q22" t="s">
         <v>8</v>
@@ -2324,16 +2325,16 @@
         <v>2</v>
       </c>
       <c r="T22">
-        <v>484</v>
+        <v>676</v>
       </c>
       <c r="U22">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V22">
-        <v>332.11340206185503</v>
+        <v>228.82</v>
       </c>
       <c r="W22">
-        <v>11.5190847515915</v>
+        <v>9.8044047903583795</v>
       </c>
       <c r="Y22" t="s">
         <v>8</v>
@@ -2345,16 +2346,16 @@
         <v>2</v>
       </c>
       <c r="AB22">
-        <v>484</v>
+        <v>676</v>
       </c>
       <c r="AC22">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AD22">
-        <v>284.73404260000001</v>
+        <v>204.13</v>
       </c>
       <c r="AE22">
-        <v>9.5369377830000008</v>
+        <v>14.842247609999999</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2368,16 +2369,16 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F23">
-        <v>607.11111111111097</v>
+        <v>430.13559322033899</v>
       </c>
       <c r="G23">
-        <v>8.1158545802269693</v>
+        <v>6.2526356521357496</v>
       </c>
       <c r="I23" t="s">
         <v>8</v>
@@ -2389,16 +2390,16 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="M23">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="N23">
-        <v>427.97777780000001</v>
+        <v>299.54545450000001</v>
       </c>
       <c r="O23">
-        <v>7.5885457660000002</v>
+        <v>8.7133503739999991</v>
       </c>
       <c r="Q23" t="s">
         <v>8</v>
@@ -2410,16 +2411,16 @@
         <v>2</v>
       </c>
       <c r="T23">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="U23">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="V23">
-        <v>387.69879518072202</v>
+        <v>272.37</v>
       </c>
       <c r="W23">
-        <v>12.134655260931099</v>
+        <v>10.585796369949801</v>
       </c>
       <c r="Y23" t="s">
         <v>8</v>
@@ -2431,16 +2432,16 @@
         <v>2</v>
       </c>
       <c r="AB23">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="AC23">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD23">
-        <v>382.5625</v>
+        <v>258.7</v>
       </c>
       <c r="AE23">
-        <v>11.362718940000001</v>
+        <v>16.587729589999999</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2451,19 +2452,19 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1600</v>
+        <v>484</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>187.41</v>
+        <v>537.43902439024396</v>
       </c>
       <c r="G24">
-        <v>4.9115708866668797</v>
+        <v>7.4650224383420696</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
@@ -2472,19 +2473,19 @@
         <v>10</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1600</v>
+        <v>484</v>
       </c>
       <c r="M24">
         <v>99</v>
       </c>
       <c r="N24">
-        <v>412.51515151515099</v>
+        <v>350.66666670000001</v>
       </c>
       <c r="O24">
-        <v>23.144718703601001</v>
+        <v>9.3208937709999997</v>
       </c>
       <c r="Q24" t="s">
         <v>8</v>
@@ -2493,19 +2494,19 @@
         <v>11</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1600</v>
+        <v>484</v>
       </c>
       <c r="U24">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="V24">
-        <v>165.95</v>
+        <v>332.11340206185503</v>
       </c>
       <c r="W24">
-        <v>12.084898129999999</v>
+        <v>11.5190847515915</v>
       </c>
       <c r="Y24" t="s">
         <v>8</v>
@@ -2514,19 +2515,19 @@
         <v>12</v>
       </c>
       <c r="AA24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB24">
-        <v>1600</v>
+        <v>484</v>
       </c>
       <c r="AC24">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AD24">
-        <v>136.27000000000001</v>
+        <v>284.73404260000001</v>
       </c>
       <c r="AE24">
-        <v>11.5188618920871</v>
+        <v>9.5369377830000008</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2537,19 +2538,19 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>1444</v>
+        <v>400</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>200.98</v>
+        <v>607.11111111111097</v>
       </c>
       <c r="G25">
-        <v>5.0704588736896401</v>
+        <v>8.1158545802269693</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
@@ -2558,19 +2559,19 @@
         <v>10</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1444</v>
+        <v>400</v>
       </c>
       <c r="M25">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N25">
-        <v>231.21</v>
+        <v>427.97777780000001</v>
       </c>
       <c r="O25">
-        <v>12.422677240000001</v>
+        <v>7.5885457660000002</v>
       </c>
       <c r="Q25" t="s">
         <v>8</v>
@@ -2579,19 +2580,19 @@
         <v>11</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>1444</v>
+        <v>400</v>
       </c>
       <c r="U25">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="V25">
-        <v>172.42</v>
+        <v>387.69879518072202</v>
       </c>
       <c r="W25">
-        <v>11.88180575</v>
+        <v>12.134655260931099</v>
       </c>
       <c r="Y25" t="s">
         <v>8</v>
@@ -2600,19 +2601,19 @@
         <v>12</v>
       </c>
       <c r="AA25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB25">
-        <v>1444</v>
+        <v>400</v>
       </c>
       <c r="AC25">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AD25">
-        <v>147.99</v>
+        <v>382.5625</v>
       </c>
       <c r="AE25">
-        <v>11.5243825209559</v>
+        <v>11.362718940000001</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2623,19 +2624,19 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1296</v>
+        <v>324</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>245.09</v>
+        <v>454.30769229999999</v>
       </c>
       <c r="G26">
-        <v>5.9534731704345898</v>
+        <v>4.3960832449999998</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
@@ -2644,19 +2645,19 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1296</v>
+        <v>324</v>
       </c>
       <c r="M26">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="N26">
-        <v>234.04</v>
+        <v>597.125</v>
       </c>
       <c r="O26">
-        <v>11.486722</v>
+        <v>5.5265855570687501</v>
       </c>
       <c r="Q26" t="s">
         <v>8</v>
@@ -2665,19 +2666,19 @@
         <v>11</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>1296</v>
+        <v>324</v>
       </c>
       <c r="U26">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="V26">
-        <v>180.95</v>
+        <v>578.96226415094304</v>
       </c>
       <c r="W26">
-        <v>11.395316169999999</v>
+        <v>5.3555011416209899</v>
       </c>
       <c r="Y26" t="s">
         <v>8</v>
@@ -2686,19 +2687,19 @@
         <v>12</v>
       </c>
       <c r="AA26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB26">
-        <v>1296</v>
+        <v>324</v>
       </c>
       <c r="AC26">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AD26">
-        <v>152.24</v>
+        <v>578.6875</v>
       </c>
       <c r="AE26">
-        <v>10.851126780098999</v>
+        <v>5.5520934424202997</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2709,19 +2710,19 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>1156</v>
+        <v>256</v>
       </c>
       <c r="E27">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>298.24242424242402</v>
+        <v>393.57142859999999</v>
       </c>
       <c r="G27">
-        <v>7.0047793450936897</v>
+        <v>3.6890062260000001</v>
       </c>
       <c r="I27" t="s">
         <v>8</v>
@@ -2730,19 +2731,19 @@
         <v>10</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1156</v>
+        <v>256</v>
       </c>
       <c r="M27">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N27">
-        <v>238.42</v>
+        <v>722.92592592592598</v>
       </c>
       <c r="O27">
-        <v>15.325856999999999</v>
+        <v>6.6808438284831402</v>
       </c>
       <c r="Q27" t="s">
         <v>8</v>
@@ -2751,19 +2752,19 @@
         <v>11</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>1156</v>
+        <v>256</v>
       </c>
       <c r="U27">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="V27">
-        <v>193.53</v>
+        <v>658.66666666666595</v>
       </c>
       <c r="W27">
-        <v>11.43927322</v>
+        <v>6.0364755416244602</v>
       </c>
       <c r="Y27" t="s">
         <v>8</v>
@@ -2772,19 +2773,19 @@
         <v>12</v>
       </c>
       <c r="AA27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB27">
-        <v>1156</v>
+        <v>256</v>
       </c>
       <c r="AC27">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="AD27">
-        <v>165.04</v>
+        <v>601.81818181818096</v>
       </c>
       <c r="AE27">
-        <v>11.102441247138101</v>
+        <v>5.5737144454985597</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2798,16 +2799,16 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>1024</v>
+        <v>1600</v>
       </c>
       <c r="E28">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>374.66304347826002</v>
+        <v>187.41</v>
       </c>
       <c r="G28">
-        <v>8.5100261326499602</v>
+        <v>4.9115708866668797</v>
       </c>
       <c r="I28" t="s">
         <v>8</v>
@@ -2819,16 +2820,16 @@
         <v>3</v>
       </c>
       <c r="L28">
-        <v>1024</v>
+        <v>1600</v>
       </c>
       <c r="M28">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28">
-        <v>260.14</v>
+        <v>412.51515151515099</v>
       </c>
       <c r="O28">
-        <v>16.19540194</v>
+        <v>23.144718703601001</v>
       </c>
       <c r="Q28" t="s">
         <v>8</v>
@@ -2840,16 +2841,16 @@
         <v>3</v>
       </c>
       <c r="T28">
-        <v>1024</v>
+        <v>1600</v>
       </c>
       <c r="U28">
         <v>100</v>
       </c>
       <c r="V28">
-        <v>218.61</v>
+        <v>165.95</v>
       </c>
       <c r="W28">
-        <v>11.337449489999999</v>
+        <v>12.084898129999999</v>
       </c>
       <c r="Y28" t="s">
         <v>8</v>
@@ -2861,16 +2862,16 @@
         <v>3</v>
       </c>
       <c r="AB28">
-        <v>1024</v>
+        <v>1600</v>
       </c>
       <c r="AC28">
         <v>100</v>
       </c>
       <c r="AD28">
-        <v>186</v>
+        <v>136.27000000000001</v>
       </c>
       <c r="AE28">
-        <v>11.3306855560035</v>
+        <v>11.5188618920871</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2884,16 +2885,16 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>900</v>
+        <v>1444</v>
       </c>
       <c r="E29">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>487.430379746835</v>
+        <v>200.98</v>
       </c>
       <c r="G29">
-        <v>10.6215598936343</v>
+        <v>5.0704588736896401</v>
       </c>
       <c r="I29" t="s">
         <v>8</v>
@@ -2905,16 +2906,16 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <v>900</v>
+        <v>1444</v>
       </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29">
-        <v>287.57</v>
+        <v>231.21</v>
       </c>
       <c r="O29">
-        <v>13.299158820000001</v>
+        <v>12.422677240000001</v>
       </c>
       <c r="Q29" t="s">
         <v>8</v>
@@ -2926,16 +2927,16 @@
         <v>3</v>
       </c>
       <c r="T29">
-        <v>900</v>
+        <v>1444</v>
       </c>
       <c r="U29">
         <v>100</v>
       </c>
       <c r="V29">
-        <v>243.28</v>
+        <v>172.42</v>
       </c>
       <c r="W29">
-        <v>12.826801117526999</v>
+        <v>11.88180575</v>
       </c>
       <c r="Y29" t="s">
         <v>8</v>
@@ -2947,16 +2948,16 @@
         <v>3</v>
       </c>
       <c r="AB29">
-        <v>900</v>
+        <v>1444</v>
       </c>
       <c r="AC29">
         <v>100</v>
       </c>
       <c r="AD29">
-        <v>217.69</v>
+        <v>147.99</v>
       </c>
       <c r="AE29">
-        <v>11.8977039077435</v>
+        <v>11.5243825209559</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -2970,16 +2971,16 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>784</v>
+        <v>1296</v>
       </c>
       <c r="E30">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F30">
-        <v>571.42372881355902</v>
+        <v>245.09</v>
       </c>
       <c r="G30">
-        <v>11.990047257405401</v>
+        <v>5.9534731704345898</v>
       </c>
       <c r="I30" t="s">
         <v>8</v>
@@ -2991,16 +2992,16 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>784</v>
+        <v>1296</v>
       </c>
       <c r="M30">
         <v>100</v>
       </c>
       <c r="N30">
-        <v>351.81</v>
+        <v>234.04</v>
       </c>
       <c r="O30">
-        <v>14.969593769999999</v>
+        <v>11.486722</v>
       </c>
       <c r="Q30" t="s">
         <v>8</v>
@@ -3012,16 +3013,16 @@
         <v>3</v>
       </c>
       <c r="T30">
-        <v>784</v>
+        <v>1296</v>
       </c>
       <c r="U30">
         <v>100</v>
       </c>
       <c r="V30">
-        <v>297.81</v>
+        <v>180.95</v>
       </c>
       <c r="W30">
-        <v>14.46245059</v>
+        <v>11.395316169999999</v>
       </c>
       <c r="Y30" t="s">
         <v>8</v>
@@ -3033,16 +3034,16 @@
         <v>3</v>
       </c>
       <c r="AB30">
-        <v>784</v>
+        <v>1296</v>
       </c>
       <c r="AC30">
         <v>100</v>
       </c>
       <c r="AD30">
-        <v>289.43</v>
+        <v>152.24</v>
       </c>
       <c r="AE30">
-        <v>14.51328086</v>
+        <v>10.851126780098999</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -3056,16 +3057,16 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>676</v>
+        <v>1156</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F31">
-        <v>661</v>
+        <v>298.24242424242402</v>
       </c>
       <c r="G31">
-        <v>13.371194358151399</v>
+        <v>7.0047793450936897</v>
       </c>
       <c r="I31" t="s">
         <v>8</v>
@@ -3077,16 +3078,16 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>676</v>
+        <v>1156</v>
       </c>
       <c r="M31">
         <v>100</v>
       </c>
       <c r="N31">
-        <v>425.23</v>
+        <v>238.42</v>
       </c>
       <c r="O31">
-        <v>16.63037564</v>
+        <v>15.325856999999999</v>
       </c>
       <c r="Q31" t="s">
         <v>8</v>
@@ -3098,16 +3099,16 @@
         <v>3</v>
       </c>
       <c r="T31">
-        <v>676</v>
+        <v>1156</v>
       </c>
       <c r="U31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="V31">
-        <v>396.33333329999999</v>
+        <v>193.53</v>
       </c>
       <c r="W31">
-        <v>17.423223780000001</v>
+        <v>11.43927322</v>
       </c>
       <c r="Y31" t="s">
         <v>8</v>
@@ -3119,16 +3120,16 @@
         <v>3</v>
       </c>
       <c r="AB31">
-        <v>676</v>
+        <v>1156</v>
       </c>
       <c r="AC31">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD31">
-        <v>395.26530609999998</v>
+        <v>165.04</v>
       </c>
       <c r="AE31">
-        <v>17.68826962</v>
+        <v>11.102441247138101</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -3142,16 +3143,16 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>576</v>
+        <v>1024</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="F32">
-        <v>782.66666666666595</v>
+        <v>374.66304347826002</v>
       </c>
       <c r="G32">
-        <v>15.3565568436946</v>
+        <v>8.5100261326499602</v>
       </c>
       <c r="I32" t="s">
         <v>8</v>
@@ -3163,16 +3164,16 @@
         <v>3</v>
       </c>
       <c r="L32">
-        <v>576</v>
+        <v>1024</v>
       </c>
       <c r="M32">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N32">
-        <v>592.47560975609701</v>
+        <v>260.14</v>
       </c>
       <c r="O32">
-        <v>17.087759745887901</v>
+        <v>16.19540194</v>
       </c>
       <c r="Q32" t="s">
         <v>8</v>
@@ -3184,16 +3185,16 @@
         <v>3</v>
       </c>
       <c r="T32">
-        <v>576</v>
+        <v>1024</v>
       </c>
       <c r="U32">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="V32">
-        <v>582.70000000000005</v>
+        <v>218.61</v>
       </c>
       <c r="W32">
-        <v>23.443699160000001</v>
+        <v>11.337449489999999</v>
       </c>
       <c r="Y32" t="s">
         <v>8</v>
@@ -3205,16 +3206,16 @@
         <v>3</v>
       </c>
       <c r="AB32">
-        <v>576</v>
+        <v>1024</v>
       </c>
       <c r="AC32">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AD32">
-        <v>522.87012990000005</v>
+        <v>186</v>
       </c>
       <c r="AE32">
-        <v>20.69212418</v>
+        <v>11.3306855560035</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -3228,16 +3229,16 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>484</v>
+        <v>900</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F33">
-        <v>1000</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
+        <v>487.430379746835</v>
+      </c>
+      <c r="G33">
+        <v>10.6215598936343</v>
       </c>
       <c r="I33" t="s">
         <v>8</v>
@@ -3249,16 +3250,16 @@
         <v>3</v>
       </c>
       <c r="L33">
-        <v>484</v>
+        <v>900</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N33">
-        <v>724.2</v>
+        <v>287.57</v>
       </c>
       <c r="O33">
-        <v>19.047387030677001</v>
+        <v>13.299158820000001</v>
       </c>
       <c r="Q33" t="s">
         <v>8</v>
@@ -3270,16 +3271,16 @@
         <v>3</v>
       </c>
       <c r="T33">
-        <v>484</v>
+        <v>900</v>
       </c>
       <c r="U33">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="V33">
-        <v>707.88</v>
+        <v>243.28</v>
       </c>
       <c r="W33">
-        <v>26.186354829999999</v>
+        <v>12.826801117526999</v>
       </c>
       <c r="Y33" t="s">
         <v>8</v>
@@ -3291,16 +3292,16 @@
         <v>3</v>
       </c>
       <c r="AB33">
-        <v>484</v>
+        <v>900</v>
       </c>
       <c r="AC33">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="AD33">
-        <v>749.33333330000005</v>
+        <v>217.69</v>
       </c>
       <c r="AE33">
-        <v>26.463721580000001</v>
+        <v>11.8977039077435</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -3314,16 +3315,16 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>400</v>
+        <v>784</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F34">
-        <v>1000</v>
-      </c>
-      <c r="G34" t="s">
-        <v>9</v>
+        <v>571.42372881355902</v>
+      </c>
+      <c r="G34">
+        <v>11.990047257405401</v>
       </c>
       <c r="I34" t="s">
         <v>8</v>
@@ -3335,16 +3336,16 @@
         <v>3</v>
       </c>
       <c r="L34">
-        <v>400</v>
+        <v>784</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N34">
-        <v>1000</v>
-      </c>
-      <c r="O34" t="s">
-        <v>9</v>
+        <v>351.81</v>
+      </c>
+      <c r="O34">
+        <v>14.969593769999999</v>
       </c>
       <c r="Q34" t="s">
         <v>8</v>
@@ -3356,16 +3357,16 @@
         <v>3</v>
       </c>
       <c r="T34">
-        <v>400</v>
+        <v>784</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="V34">
-        <v>711</v>
+        <v>297.81</v>
       </c>
       <c r="W34">
-        <v>21.337306993082102</v>
+        <v>14.46245059</v>
       </c>
       <c r="Y34" t="s">
         <v>8</v>
@@ -3377,15 +3378,531 @@
         <v>3</v>
       </c>
       <c r="AB34">
+        <v>784</v>
+      </c>
+      <c r="AC34">
+        <v>100</v>
+      </c>
+      <c r="AD34">
+        <v>289.43</v>
+      </c>
+      <c r="AE34">
+        <v>14.51328086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>676</v>
+      </c>
+      <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <v>661</v>
+      </c>
+      <c r="G35">
+        <v>13.371194358151399</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>676</v>
+      </c>
+      <c r="M35">
+        <v>100</v>
+      </c>
+      <c r="N35">
+        <v>425.23</v>
+      </c>
+      <c r="O35">
+        <v>16.63037564</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>676</v>
+      </c>
+      <c r="U35">
+        <v>96</v>
+      </c>
+      <c r="V35">
+        <v>396.33333329999999</v>
+      </c>
+      <c r="W35">
+        <v>17.423223780000001</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>676</v>
+      </c>
+      <c r="AC35">
+        <v>98</v>
+      </c>
+      <c r="AD35">
+        <v>395.26530609999998</v>
+      </c>
+      <c r="AE35">
+        <v>17.68826962</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>576</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>782.66666666666595</v>
+      </c>
+      <c r="G36">
+        <v>15.3565568436946</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>576</v>
+      </c>
+      <c r="M36">
+        <v>82</v>
+      </c>
+      <c r="N36">
+        <v>592.47560975609701</v>
+      </c>
+      <c r="O36">
+        <v>17.087759745887901</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>8</v>
+      </c>
+      <c r="R36" t="s">
+        <v>11</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>576</v>
+      </c>
+      <c r="U36">
+        <v>80</v>
+      </c>
+      <c r="V36">
+        <v>582.70000000000005</v>
+      </c>
+      <c r="W36">
+        <v>23.443699160000001</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>576</v>
+      </c>
+      <c r="AC36">
+        <v>77</v>
+      </c>
+      <c r="AD36">
+        <v>522.87012990000005</v>
+      </c>
+      <c r="AE36">
+        <v>20.69212418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>484</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>484</v>
+      </c>
+      <c r="M37">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <v>724.2</v>
+      </c>
+      <c r="O37">
+        <v>19.047387030677001</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37" t="s">
+        <v>11</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>484</v>
+      </c>
+      <c r="U37">
+        <v>25</v>
+      </c>
+      <c r="V37">
+        <v>707.88</v>
+      </c>
+      <c r="W37">
+        <v>26.186354829999999</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA37">
+        <v>3</v>
+      </c>
+      <c r="AB37">
+        <v>484</v>
+      </c>
+      <c r="AC37">
+        <v>18</v>
+      </c>
+      <c r="AD37">
+        <v>749.33333330000005</v>
+      </c>
+      <c r="AE37">
+        <v>26.463721580000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
         <v>400</v>
       </c>
-      <c r="AC34">
+      <c r="E38">
         <v>0</v>
       </c>
-      <c r="AD34">
+      <c r="F38">
         <v>1000</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>400</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1000</v>
+      </c>
+      <c r="O38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" t="s">
+        <v>11</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>400</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>711</v>
+      </c>
+      <c r="W38">
+        <v>21.337306993082102</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
+        <v>400</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>324</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>324</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1000</v>
+      </c>
+      <c r="O39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>8</v>
+      </c>
+      <c r="R39" t="s">
+        <v>11</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+      <c r="T39">
+        <v>324</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>1000</v>
+      </c>
+      <c r="W39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA39">
+        <v>3</v>
+      </c>
+      <c r="AB39">
+        <v>324</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>256</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>256</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1000</v>
+      </c>
+      <c r="O40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>8</v>
+      </c>
+      <c r="R40" t="s">
+        <v>11</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>256</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1000</v>
+      </c>
+      <c r="W40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA40">
+        <v>3</v>
+      </c>
+      <c r="AB40">
+        <v>256</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>1000</v>
+      </c>
+      <c r="AE40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3398,7 +3915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D88C40-7E9F-4620-A2D5-0F054AEC5F19}">
   <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O22" workbookViewId="0">
+    <sheetView topLeftCell="O22" workbookViewId="0">
       <selection activeCell="AB39" sqref="AB39:AE40"/>
     </sheetView>
   </sheetViews>

--- a/Results_Summary.xlsx
+++ b/Results_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DB0CB-C183-47AF-AB12-2D96CB7A3E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D601CB-A993-40A9-981F-BCC625ED4110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{EFC7981A-9020-47BE-BE85-59C126B69635}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{EFC7981A-9020-47BE-BE85-59C126B69635}"/>
   </bookViews>
   <sheets>
     <sheet name="Fourier" sheetId="1" r:id="rId1"/>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EEAE6E-1B3E-48B9-B9BF-D127E06B7F54}">
   <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3915,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D88C40-7E9F-4620-A2D5-0F054AEC5F19}">
   <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView topLeftCell="O22" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39:AE40"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4735,13 +4735,13 @@
         <v>576</v>
       </c>
       <c r="M10">
-        <v>576</v>
+        <v>99</v>
       </c>
       <c r="N10">
-        <v>99</v>
+        <v>362.89898989898899</v>
       </c>
       <c r="O10">
-        <v>362.89898989898899</v>
+        <v>2.1794750425644702</v>
       </c>
       <c r="Q10" t="s">
         <v>18</v>
@@ -4821,13 +4821,13 @@
         <v>484</v>
       </c>
       <c r="M11">
-        <v>484</v>
+        <v>92</v>
       </c>
       <c r="N11">
-        <v>92</v>
+        <v>413.89130434782601</v>
       </c>
       <c r="O11">
-        <v>413.89130434782601</v>
+        <v>2.41285015264546</v>
       </c>
       <c r="Q11" t="s">
         <v>18</v>
@@ -4907,13 +4907,13 @@
         <v>400</v>
       </c>
       <c r="M12">
-        <v>400</v>
+        <v>92</v>
       </c>
       <c r="N12">
-        <v>92</v>
+        <v>342.78260869565202</v>
       </c>
       <c r="O12">
-        <v>342.78260869565202</v>
+        <v>1.9383401599530401</v>
       </c>
       <c r="Q12" t="s">
         <v>18</v>
